--- a/2020/cursos/geometria/sexto/Listados Geometria 6-1.xlsx
+++ b/2020/cursos/geometria/sexto/Listados Geometria 6-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\geometria\sexto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD582622-C60A-471D-B6D6-FCDC3405887C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78ABC32-98CE-4CB1-A4E1-43542F1CFA58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="390" windowWidth="14400" windowHeight="12570" activeTab="1" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
+    <workbookView minimized="1" xWindow="390" yWindow="390" windowWidth="14400" windowHeight="13710" firstSheet="1" activeTab="1" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
   <sheets>
     <sheet name="Asistencia" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="45">
   <si>
     <t>Codigo</t>
   </si>
@@ -173,7 +173,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +193,13 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -218,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -239,6 +246,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1034,7 +1044,7 @@
   <dimension ref="A3:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,7 +1323,7 @@
       <c r="C22" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="8" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1327,6 +1337,9 @@
       <c r="C23" t="s">
         <v>22</v>
       </c>
+      <c r="D23" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
@@ -1608,7 +1621,7 @@
       </c>
       <c r="D44" s="7">
         <f>COUNTA(D4:D43)</f>
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/2020/cursos/geometria/sexto/Listados Geometria 6-1.xlsx
+++ b/2020/cursos/geometria/sexto/Listados Geometria 6-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\geometria\sexto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78ABC32-98CE-4CB1-A4E1-43542F1CFA58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F121BF9-7934-4234-B700-276BF2532FD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="390" yWindow="390" windowWidth="14400" windowHeight="13710" firstSheet="1" activeTab="1" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="1" activeTab="1" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
   <sheets>
     <sheet name="Asistencia" sheetId="1" r:id="rId1"/>
@@ -173,7 +173,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +200,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -242,13 +250,13 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1041,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F14E4E-6367-4BCF-88A7-647C3E1932AC}">
-  <dimension ref="A3:D44"/>
+  <dimension ref="A3:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,25 +1060,28 @@
     <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>43980</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="5">
+        <v>43994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2537</v>
       </c>
@@ -1083,8 +1094,9 @@
       <c r="D4" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2685</v>
       </c>
@@ -1098,7 +1110,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4141</v>
       </c>
@@ -1112,7 +1124,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2561</v>
       </c>
@@ -1126,7 +1138,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3817</v>
       </c>
@@ -1140,7 +1152,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2780</v>
       </c>
@@ -1151,7 +1163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2223</v>
       </c>
@@ -1165,7 +1177,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>3790</v>
       </c>
@@ -1179,7 +1191,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>4155</v>
       </c>
@@ -1190,7 +1202,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>4146</v>
       </c>
@@ -1204,7 +1216,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>3914</v>
       </c>
@@ -1218,7 +1230,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>2560</v>
       </c>
@@ -1232,7 +1244,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>2574</v>
       </c>
@@ -1323,7 +1335,7 @@
       <c r="C22" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1464,7 +1476,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>2789</v>
       </c>
@@ -1478,7 +1490,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>2678</v>
       </c>
@@ -1492,7 +1504,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>2679</v>
       </c>
@@ -1506,7 +1518,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>2549</v>
       </c>
@@ -1520,7 +1532,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>2680</v>
       </c>
@@ -1534,7 +1546,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>2749</v>
       </c>
@@ -1548,7 +1560,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>2208</v>
       </c>
@@ -1562,7 +1574,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>2204</v>
       </c>
@@ -1573,7 +1585,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>1907</v>
       </c>
@@ -1587,7 +1599,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>2707</v>
       </c>
@@ -1601,7 +1613,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>2558</v>
       </c>
@@ -1615,13 +1627,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="C44" s="7" t="s">
+    <row r="44" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C44" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="6">
         <f>COUNTA(D4:D43)</f>
         <v>35</v>
+      </c>
+      <c r="E44" s="6">
+        <f>COUNTA(E4:E43)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/2020/cursos/geometria/sexto/Listados Geometria 6-1.xlsx
+++ b/2020/cursos/geometria/sexto/Listados Geometria 6-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\geometria\sexto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F121BF9-7934-4234-B700-276BF2532FD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2CFF31-EB17-4A0C-A83B-D45842AB4FA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="1" activeTab="1" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
   <sheets>
     <sheet name="Asistencia" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="45">
   <si>
     <t>Codigo</t>
   </si>
@@ -173,7 +173,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,14 +204,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -233,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -256,8 +248,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,10 +568,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD09D4E-2993-4F11-BB0F-40F78899A78D}">
-  <dimension ref="A3:D43"/>
+  <dimension ref="A3:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,10 +582,10 @@
     <col min="1" max="1" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -600,8 +598,14 @@
       <c r="D3" s="5">
         <v>43980</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="5">
+        <v>43994</v>
+      </c>
+      <c r="F3" s="5">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2537</v>
       </c>
@@ -611,8 +615,17 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2685</v>
       </c>
@@ -622,8 +635,17 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4141</v>
       </c>
@@ -633,8 +655,17 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2561</v>
       </c>
@@ -644,8 +675,17 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3817</v>
       </c>
@@ -655,8 +695,17 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2780</v>
       </c>
@@ -666,8 +715,13 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="4"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2223</v>
       </c>
@@ -677,8 +731,14 @@
       <c r="C10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>3790</v>
       </c>
@@ -688,8 +748,17 @@
       <c r="C11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>4155</v>
       </c>
@@ -699,8 +768,13 @@
       <c r="C12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="4"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>4146</v>
       </c>
@@ -710,8 +784,17 @@
       <c r="C13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>3914</v>
       </c>
@@ -721,8 +804,17 @@
       <c r="C14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>2560</v>
       </c>
@@ -732,8 +824,17 @@
       <c r="C15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>2574</v>
       </c>
@@ -743,8 +844,17 @@
       <c r="C16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2692</v>
       </c>
@@ -754,8 +864,10 @@
       <c r="C17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="4"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>2693</v>
       </c>
@@ -765,8 +877,14 @@
       <c r="C18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>2540</v>
       </c>
@@ -776,8 +894,17 @@
       <c r="C19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>2671</v>
       </c>
@@ -787,8 +914,17 @@
       <c r="C20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>2696</v>
       </c>
@@ -798,8 +934,17 @@
       <c r="C21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>2580</v>
       </c>
@@ -809,8 +954,17 @@
       <c r="C22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>2700</v>
       </c>
@@ -820,8 +974,17 @@
       <c r="C23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>4157</v>
       </c>
@@ -831,8 +994,14 @@
       <c r="C24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>2980</v>
       </c>
@@ -842,8 +1011,17 @@
       <c r="C25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>2701</v>
       </c>
@@ -853,8 +1031,13 @@
       <c r="C26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="4"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>2792</v>
       </c>
@@ -864,8 +1047,17 @@
       <c r="C27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>3494</v>
       </c>
@@ -875,8 +1067,17 @@
       <c r="C28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>2584</v>
       </c>
@@ -886,8 +1087,17 @@
       <c r="C29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>3731</v>
       </c>
@@ -897,8 +1107,17 @@
       <c r="C30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>4306</v>
       </c>
@@ -908,8 +1127,17 @@
       <c r="C31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>2943</v>
       </c>
@@ -919,8 +1147,17 @@
       <c r="C32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>2789</v>
       </c>
@@ -930,8 +1167,17 @@
       <c r="C33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>2678</v>
       </c>
@@ -941,8 +1187,17 @@
       <c r="C34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>2679</v>
       </c>
@@ -952,8 +1207,17 @@
       <c r="C35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>2549</v>
       </c>
@@ -963,8 +1227,17 @@
       <c r="C36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>2680</v>
       </c>
@@ -974,8 +1247,17 @@
       <c r="C37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>2749</v>
       </c>
@@ -985,8 +1267,17 @@
       <c r="C38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>2208</v>
       </c>
@@ -996,8 +1287,17 @@
       <c r="C39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>2204</v>
       </c>
@@ -1007,8 +1307,13 @@
       <c r="C40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="4"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>1907</v>
       </c>
@@ -1018,8 +1323,17 @@
       <c r="C41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>2707</v>
       </c>
@@ -1029,8 +1343,17 @@
       <c r="C42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>2558</v>
       </c>
@@ -1039,6 +1362,26 @@
       </c>
       <c r="C43" t="s">
         <v>42</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="D44" s="6">
+        <f>COUNTA(D4:D43)</f>
+        <v>35</v>
+      </c>
+      <c r="E44" s="6">
+        <f>COUNTA(E4:E43)</f>
+        <v>35</v>
+      </c>
+      <c r="F44" s="6">
+        <f>COUNTA(F4:F43)</f>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1049,10 +1392,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F14E4E-6367-4BCF-88A7-647C3E1932AC}">
-  <dimension ref="A3:E44"/>
+  <dimension ref="A3:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44:E44"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,10 +1407,10 @@
     <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1080,8 +1426,11 @@
       <c r="E3" s="5">
         <v>43994</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="5">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2537</v>
       </c>
@@ -1091,12 +1440,9 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2685</v>
       </c>
@@ -1106,11 +1452,9 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4141</v>
       </c>
@@ -1120,11 +1464,9 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2561</v>
       </c>
@@ -1134,11 +1476,9 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3817</v>
       </c>
@@ -1148,11 +1488,9 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2780</v>
       </c>
@@ -1162,8 +1500,9 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2223</v>
       </c>
@@ -1173,11 +1512,9 @@
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>3790</v>
       </c>
@@ -1187,11 +1524,9 @@
       <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>4155</v>
       </c>
@@ -1201,8 +1536,9 @@
       <c r="C12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>4146</v>
       </c>
@@ -1212,11 +1548,9 @@
       <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>3914</v>
       </c>
@@ -1226,11 +1560,9 @@
       <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>2560</v>
       </c>
@@ -1240,11 +1572,9 @@
       <c r="C15" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>2574</v>
       </c>
@@ -1254,11 +1584,9 @@
       <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2692</v>
       </c>
@@ -1268,8 +1596,9 @@
       <c r="C17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>2693</v>
       </c>
@@ -1279,11 +1608,9 @@
       <c r="C18" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>2540</v>
       </c>
@@ -1293,11 +1620,9 @@
       <c r="C19" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>2671</v>
       </c>
@@ -1307,11 +1632,9 @@
       <c r="C20" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>2696</v>
       </c>
@@ -1321,11 +1644,9 @@
       <c r="C21" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>2580</v>
       </c>
@@ -1335,11 +1656,10 @@
       <c r="C22" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="7"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>2700</v>
       </c>
@@ -1349,11 +1669,9 @@
       <c r="C23" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>4157</v>
       </c>
@@ -1363,11 +1681,9 @@
       <c r="C24" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>2980</v>
       </c>
@@ -1377,11 +1693,9 @@
       <c r="C25" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>2701</v>
       </c>
@@ -1391,8 +1705,9 @@
       <c r="C26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>2792</v>
       </c>
@@ -1402,11 +1717,9 @@
       <c r="C27" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>3494</v>
       </c>
@@ -1416,11 +1729,9 @@
       <c r="C28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>2584</v>
       </c>
@@ -1430,11 +1741,9 @@
       <c r="C29" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>3731</v>
       </c>
@@ -1444,11 +1753,9 @@
       <c r="C30" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>4306</v>
       </c>
@@ -1458,11 +1765,9 @@
       <c r="C31" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>2943</v>
       </c>
@@ -1472,11 +1777,9 @@
       <c r="C32" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>2789</v>
       </c>
@@ -1486,11 +1789,9 @@
       <c r="C33" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>2678</v>
       </c>
@@ -1500,11 +1801,9 @@
       <c r="C34" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>2679</v>
       </c>
@@ -1514,11 +1813,9 @@
       <c r="C35" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>2549</v>
       </c>
@@ -1528,11 +1825,9 @@
       <c r="C36" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>2680</v>
       </c>
@@ -1542,11 +1837,9 @@
       <c r="C37" t="s">
         <v>36</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>2749</v>
       </c>
@@ -1556,11 +1849,9 @@
       <c r="C38" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>2208</v>
       </c>
@@ -1570,11 +1861,9 @@
       <c r="C39" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>2204</v>
       </c>
@@ -1584,8 +1873,9 @@
       <c r="C40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>1907</v>
       </c>
@@ -1595,11 +1885,9 @@
       <c r="C41" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>2707</v>
       </c>
@@ -1609,11 +1897,9 @@
       <c r="C42" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>2558</v>
       </c>
@@ -1623,20 +1909,22 @@
       <c r="C43" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="C44" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D44" s="6">
         <f>COUNTA(D4:D43)</f>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E44" s="6">
         <f>COUNTA(E4:E43)</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="6">
+        <f>COUNTA(F4:F43)</f>
         <v>0</v>
       </c>
     </row>

--- a/2020/cursos/geometria/sexto/Listados Geometria 6-1.xlsx
+++ b/2020/cursos/geometria/sexto/Listados Geometria 6-1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\geometria\sexto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2CFF31-EB17-4A0C-A83B-D45842AB4FA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467D37B4-2CF2-4747-B870-D871BB2230E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="45">
   <si>
     <t>Codigo</t>
   </si>
@@ -225,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -253,6 +253,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,13 +571,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD09D4E-2993-4F11-BB0F-40F78899A78D}">
-  <dimension ref="A3:F44"/>
+  <dimension ref="A3:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F42" sqref="F42"/>
+      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,10 +585,11 @@
     <col min="1" max="1" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -604,8 +608,17 @@
       <c r="F3" s="5">
         <v>44008</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="10">
+        <v>44029</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2537</v>
       </c>
@@ -624,8 +637,17 @@
       <c r="F4" s="8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2685</v>
       </c>
@@ -644,8 +666,17 @@
       <c r="F5" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4141</v>
       </c>
@@ -664,8 +695,17 @@
       <c r="F6" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>2561</v>
       </c>
@@ -684,8 +724,17 @@
       <c r="F7" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3817</v>
       </c>
@@ -704,8 +753,17 @@
       <c r="F8" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>2780</v>
       </c>
@@ -720,8 +778,17 @@
       <c r="F9" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2223</v>
       </c>
@@ -737,8 +804,11 @@
       <c r="E10" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>3790</v>
       </c>
@@ -757,8 +827,17 @@
       <c r="F11" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>4155</v>
       </c>
@@ -773,8 +852,17 @@
       <c r="F12" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>4146</v>
       </c>
@@ -793,8 +881,14 @@
       <c r="F13" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>3914</v>
       </c>
@@ -813,8 +907,17 @@
       <c r="F14" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>2560</v>
       </c>
@@ -833,8 +936,14 @@
       <c r="F15" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>2574</v>
       </c>
@@ -853,8 +962,17 @@
       <c r="F16" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>2692</v>
       </c>
@@ -866,8 +984,11 @@
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>2693</v>
       </c>
@@ -883,8 +1004,11 @@
       <c r="E18" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>2540</v>
       </c>
@@ -903,8 +1027,17 @@
       <c r="F19" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>2671</v>
       </c>
@@ -923,8 +1056,17 @@
       <c r="F20" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>2696</v>
       </c>
@@ -943,8 +1085,17 @@
       <c r="F21" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>2580</v>
       </c>
@@ -963,8 +1114,17 @@
       <c r="F22" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>2700</v>
       </c>
@@ -983,8 +1143,17 @@
       <c r="F23" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>4157</v>
       </c>
@@ -1000,8 +1169,11 @@
       <c r="E24" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>2980</v>
       </c>
@@ -1020,8 +1192,17 @@
       <c r="F25" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>2701</v>
       </c>
@@ -1036,8 +1217,14 @@
       <c r="F26" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>2792</v>
       </c>
@@ -1056,8 +1243,17 @@
       <c r="F27" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>3494</v>
       </c>
@@ -1076,8 +1272,17 @@
       <c r="F28" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>2584</v>
       </c>
@@ -1096,8 +1301,17 @@
       <c r="F29" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>3731</v>
       </c>
@@ -1116,8 +1330,17 @@
       <c r="F30" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>4306</v>
       </c>
@@ -1136,8 +1359,17 @@
       <c r="F31" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>2943</v>
       </c>
@@ -1156,8 +1388,17 @@
       <c r="F32" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>2789</v>
       </c>
@@ -1176,8 +1417,14 @@
       <c r="F33" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>2678</v>
       </c>
@@ -1196,8 +1443,17 @@
       <c r="F34" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>2679</v>
       </c>
@@ -1216,8 +1472,17 @@
       <c r="F35" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>2549</v>
       </c>
@@ -1236,8 +1501,17 @@
       <c r="F36" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>2680</v>
       </c>
@@ -1256,8 +1530,17 @@
       <c r="F37" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>2749</v>
       </c>
@@ -1276,8 +1559,17 @@
       <c r="F38" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>2208</v>
       </c>
@@ -1296,8 +1588,17 @@
       <c r="F39" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>2204</v>
       </c>
@@ -1312,8 +1613,17 @@
       <c r="F40" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>1907</v>
       </c>
@@ -1332,8 +1642,17 @@
       <c r="F41" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>2707</v>
       </c>
@@ -1352,8 +1671,17 @@
       <c r="F42" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>2558</v>
       </c>
@@ -1369,8 +1697,11 @@
       <c r="E43" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="G43" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="D44" s="6">
         <f>COUNTA(D4:D43)</f>
         <v>35</v>
@@ -1383,6 +1714,16 @@
         <f>COUNTA(F4:F43)</f>
         <v>35</v>
       </c>
+      <c r="G44" s="6">
+        <f>COUNTA(G4:G43)</f>
+        <v>36</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2020/cursos/geometria/sexto/Listados Geometria 6-1.xlsx
+++ b/2020/cursos/geometria/sexto/Listados Geometria 6-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\geometria\sexto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467D37B4-2CF2-4747-B870-D871BB2230E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DADF2C-AEA2-4BAA-8751-A8C875BE8D99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="45">
   <si>
     <t>Codigo</t>
   </si>
@@ -574,10 +574,10 @@
   <dimension ref="A3:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,7 +586,8 @@
     <col min="2" max="2" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="12.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="4" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -611,7 +612,9 @@
       <c r="G3" s="10">
         <v>44029</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="10">
+        <v>44036</v>
+      </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -669,7 +672,6 @@
       <c r="G5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -698,7 +700,9 @@
       <c r="G6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -727,7 +731,9 @@
       <c r="G7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -756,7 +762,9 @@
       <c r="G8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -781,7 +789,9 @@
       <c r="G9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -830,7 +840,9 @@
       <c r="G11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -855,7 +867,9 @@
       <c r="G12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="4"/>
+      <c r="H12" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -881,7 +895,9 @@
       <c r="F13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -910,7 +926,9 @@
       <c r="G14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -936,7 +954,9 @@
       <c r="F15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -965,7 +985,6 @@
       <c r="G16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -987,6 +1006,9 @@
       <c r="G17" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="H17" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -1007,6 +1029,9 @@
       <c r="G18" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="H18" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -1030,7 +1055,9 @@
       <c r="G19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -1059,7 +1086,9 @@
       <c r="G20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -1088,7 +1117,9 @@
       <c r="G21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -1117,7 +1148,9 @@
       <c r="G22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -1146,7 +1179,9 @@
       <c r="G23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="4"/>
+      <c r="H23" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -1172,6 +1207,9 @@
       <c r="G24" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="H24" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
@@ -1195,7 +1233,9 @@
       <c r="G25" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H25" s="4"/>
+      <c r="H25" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -1217,7 +1257,9 @@
       <c r="F26" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H26" s="4"/>
+      <c r="H26" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -1246,7 +1288,9 @@
       <c r="G27" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="4"/>
+      <c r="H27" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -1275,7 +1319,9 @@
       <c r="G28" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="4"/>
+      <c r="H28" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -1304,7 +1350,9 @@
       <c r="G29" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H29" s="4"/>
+      <c r="H29" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -1333,7 +1381,9 @@
       <c r="G30" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H30" s="4"/>
+      <c r="H30" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -1362,7 +1412,9 @@
       <c r="G31" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H31" s="4"/>
+      <c r="H31" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -1391,7 +1443,9 @@
       <c r="G32" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="4"/>
+      <c r="H32" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -1417,7 +1471,6 @@
       <c r="F33" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -1446,7 +1499,9 @@
       <c r="G34" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="4"/>
+      <c r="H34" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -1475,7 +1530,6 @@
       <c r="G35" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -1504,7 +1558,9 @@
       <c r="G36" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H36" s="4"/>
+      <c r="H36" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -1533,7 +1589,9 @@
       <c r="G37" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H37" s="4"/>
+      <c r="H37" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -1562,7 +1620,6 @@
       <c r="G38" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -1591,7 +1648,9 @@
       <c r="G39" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H39" s="4"/>
+      <c r="H39" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -1616,7 +1675,6 @@
       <c r="G40" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -1645,7 +1703,9 @@
       <c r="G41" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H41" s="4"/>
+      <c r="H41" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -1674,7 +1734,9 @@
       <c r="G42" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H42" s="4"/>
+      <c r="H42" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -1700,6 +1762,9 @@
       <c r="G43" s="4" t="s">
         <v>43</v>
       </c>
+      <c r="H43" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="44" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="D44" s="6">
@@ -1718,7 +1783,10 @@
         <f>COUNTA(G4:G43)</f>
         <v>36</v>
       </c>
-      <c r="H44" s="6"/>
+      <c r="H44" s="6">
+        <f>COUNTA(H4:H43)</f>
+        <v>32</v>
+      </c>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
